--- a/EXCEL DA/call centre analysis/call centre analysis 1.xlsx
+++ b/EXCEL DA/call centre analysis/call centre analysis 1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a6e7b6fdb03b60b8/Desktop/DA/EXCEL DA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hasan\Desktop\DA\EXCEL DA\call centre analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{A562311C-36E2-4764-A46C-958D70EBA0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1785858E-4E01-489C-B03D-893C8F04E604}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A4CDE4-D763-47FC-9D4E-9217FBE4B11B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{26D4546B-D2A1-4444-8EAF-A6228F96F0C1}"/>
   </bookViews>
@@ -30,11 +30,11 @@
     <pivotCache cacheId="1" r:id="rId6"/>
     <pivotCache cacheId="2" r:id="rId7"/>
     <pivotCache cacheId="3" r:id="rId8"/>
-    <pivotCache cacheId="117" r:id="rId9"/>
-    <pivotCache cacheId="120" r:id="rId10"/>
-    <pivotCache cacheId="123" r:id="rId11"/>
-    <pivotCache cacheId="126" r:id="rId12"/>
-    <pivotCache cacheId="129" r:id="rId13"/>
+    <pivotCache cacheId="102" r:id="rId9"/>
+    <pivotCache cacheId="105" r:id="rId10"/>
+    <pivotCache cacheId="108" r:id="rId11"/>
+    <pivotCache cacheId="111" r:id="rId12"/>
+    <pivotCache cacheId="114" r:id="rId13"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{876F7934-8845-4945-9796-88D515C7AA90}">
@@ -4264,7 +4264,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[call center analysis 1.xlsx]pivots!rating</c:name>
+    <c:name>[call centre analysis 1.xlsx]pivots!rating</c:name>
     <c:fmtId val="14"/>
   </c:pivotSource>
   <c:chart>
@@ -4755,16 +4755,16 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>62</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4891,6 +4891,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4898,7 +4899,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4961,7 +4961,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[call center analysis 1.xlsx]pivots!weekly trend</c:name>
+    <c:name>[call centre analysis 1.xlsx]pivots!weekly trend</c:name>
     <c:fmtId val="28"/>
   </c:pivotSource>
   <c:chart>
@@ -5355,25 +5355,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5476,6 +5476,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5483,7 +5484,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5546,7 +5546,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[call center analysis 1.xlsx]pivots!monthly trend</c:name>
+    <c:name>[call centre analysis 1.xlsx]pivots!monthly trend</c:name>
     <c:fmtId val="9"/>
   </c:pivotSource>
   <c:chart>
@@ -6130,40 +6130,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>11</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6280,40 +6280,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>11</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6441,6 +6441,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -6448,7 +6449,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6766,13 +6766,13 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>217</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>186</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#N/A</c:v>
@@ -6876,6 +6876,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -6883,7 +6884,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7242,13 +7242,13 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>20485</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16651</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#N/A</c:v>
@@ -7319,6 +7319,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -7326,7 +7327,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -7368,7 +7368,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[call center analysis 1.xlsx]pivots!male vs female</c:name>
+    <c:name>[call centre analysis 1.xlsx]pivots!male vs female</c:name>
     <c:fmtId val="4"/>
   </c:pivotSource>
   <c:chart>
@@ -8349,6 +8349,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -8356,7 +8357,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -8419,7 +8419,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[call center analysis 1.xlsx]pivots!rating</c:name>
+    <c:name>[call centre analysis 1.xlsx]pivots!rating</c:name>
     <c:fmtId val="24"/>
   </c:pivotSource>
   <c:chart>
@@ -8797,16 +8797,16 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>62</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8933,6 +8933,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -8940,7 +8941,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -13617,7 +13617,7 @@
               <a:latin typeface="Aptos Narrow"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>186</a:t>
+            <a:t>217</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:solidFill>
@@ -13919,7 +13919,7 @@
               <a:latin typeface="Aptos Narrow"/>
             </a:rPr>
             <a:pPr algn="l"/>
-            <a:t>₹ 16,651</a:t>
+            <a:t>₹ 20,485</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:solidFill>
@@ -14221,7 +14221,7 @@
               <a:latin typeface="Aptos Narrow"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>17,807</a:t>
+            <a:t>19,161</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:solidFill>
@@ -14843,7 +14843,7 @@
               <a:latin typeface="Aptos Narrow"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>62</a:t>
+            <a:t>74</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:solidFill>
@@ -15048,10 +15048,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15584,7 +15580,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="hasan abdul" refreshedDate="45801.621716087961" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{0C4F9411-3A36-45D0-BDC2-7944852276CB}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="hasan abdul" refreshedDate="45877.958755208332" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{0C4F9411-3A36-45D0-BDC2-7944852276CB}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="6">
     <cacheField name="[Measures].[calls count ]" caption="calls count " numFmtId="0" hierarchy="17" level="32767"/>
@@ -15700,7 +15696,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="hasan abdul" refreshedDate="45801.621716782407" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{730A4D84-FEAC-46E4-90DF-76604E505608}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="hasan abdul" refreshedDate="45877.958755671294" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{730A4D84-FEAC-46E4-90DF-76604E505608}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="5">
     <cacheField name="[calls].[Date of Call].[Date of Call]" caption="Date of Call" numFmtId="0" hierarchy="4" level="1">
@@ -15742,7 +15738,7 @@
     <cacheField name="[calls].[Representative].[Representative]" caption="Representative" numFmtId="0" hierarchy="3" level="1">
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
     </cacheField>
-    <cacheField name="Dummy0" numFmtId="0" hierarchy="29" level="32767">
+    <cacheField name="Unsupported0" numFmtId="0" hierarchy="29" level="32767">
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{63CAB8AC-B538-458d-9737-405883B0398D}">
           <x14:cacheField ignore="1"/>
@@ -15822,7 +15818,7 @@
         </ext>
       </extLst>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="Dummy0" caption="Call number" measure="1" count="0">
+    <cacheHierarchy uniqueName="Unsupported0" caption="Call number" measure="1" count="0">
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{8CF416AD-EC4C-4aba-99F5-12A058AE0983}">
           <x14:cacheHierarchy ignore="1"/>
@@ -15854,7 +15850,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="hasan abdul" refreshedDate="45801.621717361108" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{A4C58885-ABEA-4751-9AE2-CF10C47047D4}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="hasan abdul" refreshedDate="45877.958756250002" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{A4C58885-ABEA-4751-9AE2-CF10C47047D4}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[calls].[Day of week].[Day of week]" caption="Day of week" numFmtId="0" hierarchy="8" level="1">
@@ -15965,12 +15961,12 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="hasan abdul" refreshedDate="45801.621717939815" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{2F2FD42B-BECC-4FE5-ABC4-45DB78A012FD}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="hasan abdul" refreshedDate="45877.958756712964" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{2F2FD42B-BECC-4FE5-ABC4-45DB78A012FD}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="1">
     <cacheField name="[calls].[Representative].[Representative]" caption="Representative" numFmtId="0" hierarchy="3" level="1">
       <sharedItems count="1">
-        <s v="R04"/>
+        <s v="R02"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -16058,7 +16054,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="hasan abdul" refreshedDate="45801.621718402777" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{BCA3D782-1A77-427C-AACE-239B350A1116}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="hasan abdul" refreshedDate="45877.958757291664" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{BCA3D782-1A77-427C-AACE-239B350A1116}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Count of Call number]" caption="Count of Call number" numFmtId="0" hierarchy="25" level="32767"/>
@@ -16178,123 +16174,161 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8D7D4ACE-7C2A-4699-A75B-68711E85D9B8}" name="selectedd rep" cacheId="126" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
-  <location ref="A52:A53" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="1">
-    <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="2">
-        <item s="1" x="0"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9987BCF3-F050-4A34-A910-465A53001E5D}" name="weekly trend" cacheId="108" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="33">
+  <location ref="G17:H25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" allDrilled="1" showAll="0" sortType="ascending" defaultAttributeDrillState="1">
+      <items count="8">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="1">
+  <rowItems count="8">
     <i>
       <x/>
     </i>
-  </rowItems>
-  <pivotHierarchies count="29">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="3"/>
-  </rowHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings>
-        <x15:activeTabTopLevelEntity name="[calls]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ECE91D77-0740-48EE-ADDE-DD877F0C219A}" name="rep" cacheId="117" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
-  <location ref="A11:E12" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="6">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
     <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
       <x/>
     </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
   </colItems>
-  <dataFields count="5">
-    <dataField fld="0" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField fld="1" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField fld="3" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField fld="4" subtotal="count" baseField="0" baseItem="0"/>
+  <dataFields count="1">
+    <dataField name="Count of Call number" fld="1" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
+  <chartFormats count="8">
+    <chartFormat chart="28" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="28" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="28" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="28" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="28" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="28" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="28" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="28" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotHierarchies count="29">
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
       <members count="1" level="1">
-        <member name="[calls].[Representative].&amp;[R04]"/>
+        <member name="[calls].[Representative].&amp;[R02]"/>
       </members>
     </pivotHierarchy>
     <pivotHierarchy dragToData="1"/>
@@ -16324,9 +16358,9 @@
     <pivotHierarchy dragToData="1"/>
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <colHierarchiesUsage count="1">
-    <colHierarchyUsage hierarchyUsage="-2"/>
-  </colHierarchiesUsage>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="8"/>
+  </rowHierarchiesUsage>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
@@ -16343,197 +16377,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BC6187DC-C3F0-40B3-82CA-89A848AD190E}" name="male vs female" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="5">
-  <location ref="L37:O42" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Call number" fld="2" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="6">
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotHierarchies count="29">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="15"/>
-  </rowHierarchiesUsage>
-  <colHierarchiesUsage count="1">
-    <colHierarchyUsage hierarchyUsage="13"/>
-  </colHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings>
-        <x15:activeTabTopLevelEntity name="[customers]"/>
-        <x15:activeTabTopLevelEntity name="[calls]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{34F84CC3-2345-4CD0-B8C7-2DFE15F8DFEA}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="5">
   <location ref="S37:Y56" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
@@ -16716,8 +16560,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E75B6474-9AD8-446D-B4EB-FA63E9DBEA84}" name="rating" cacheId="129" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="29">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E75B6474-9AD8-446D-B4EB-FA63E9DBEA84}" name="rating" cacheId="114" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="29">
   <location ref="L46:M52" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" showAll="0"/>
@@ -17040,7 +16884,7 @@
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
       <members count="1" level="1">
-        <member name="[calls].[Representative].&amp;[R04]"/>
+        <member name="[calls].[Representative].&amp;[R02]"/>
       </members>
     </pivotHierarchy>
     <pivotHierarchy dragToData="1"/>
@@ -17089,7 +16933,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7820576A-9401-457B-9B49-690B3B9EF433}" name="summary" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
   <location ref="A3:E4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="5">
@@ -17180,8 +17024,174 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8D7D4ACE-7C2A-4699-A75B-68711E85D9B8}" name="selectedd rep" cacheId="111" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
+  <location ref="A52:A53" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="2">
+        <item s="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="1">
+    <i>
+      <x/>
+    </i>
+  </rowItems>
+  <pivotHierarchies count="29">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="3"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings>
+        <x15:activeTabTopLevelEntity name="[calls]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ECE91D77-0740-48EE-ADDE-DD877F0C219A}" name="rep" cacheId="102" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
+  <location ref="A11:E12" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="6">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField fld="1" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField fld="3" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField fld="4" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotHierarchies count="29">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
+      <members count="1" level="1">
+        <member name="[calls].[Representative].&amp;[R02]"/>
+      </members>
+    </pivotHierarchy>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="-2"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_call center analysis.xlsx!calls">
+        <x15:activeTabTopLevelEntity name="[calls]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D1471273-9F5B-4AE9-8505-1BC4D05FD3BC}" name="monthly trend" cacheId="120" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="12">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D1471273-9F5B-4AE9-8505-1BC4D05FD3BC}" name="monthly trend" cacheId="105" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="12">
   <location ref="A18:C31" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
@@ -17323,7 +17333,7 @@
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
       <members count="1" level="1">
-        <member name="[calls].[Representative].&amp;[R04]"/>
+        <member name="[calls].[Representative].&amp;[R02]"/>
       </members>
     </pivotHierarchy>
     <pivotHierarchy dragToData="1"/>
@@ -17384,6 +17394,196 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BC6187DC-C3F0-40B3-82CA-89A848AD190E}" name="male vs female" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="5">
+  <location ref="L37:O42" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Call number" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="6">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="29">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="15"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="13"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings>
+        <x15:activeTabTopLevelEntity name="[customers]"/>
+        <x15:activeTabTopLevelEntity name="[calls]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CD09A4EE-DAD0-45DE-8F59-C3D6F73574F0}" name="rep 2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
   <location ref="A40:C46" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
@@ -17492,210 +17692,6 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9987BCF3-F050-4A34-A910-465A53001E5D}" name="weekly trend" cacheId="123" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="33">
-  <location ref="G17:H25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisRow" allDrilled="1" showAll="0" sortType="ascending" defaultAttributeDrillState="1">
-      <items count="8">
-        <item x="3"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Call number" fld="1" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="8">
-    <chartFormat chart="28" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="28" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="28" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="28" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="28" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="28" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="28" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="28" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotHierarchies count="29">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
-      <members count="1" level="1">
-        <member name="[calls].[Representative].&amp;[R04]"/>
-      </members>
-    </pivotHierarchy>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="8"/>
-  </rowHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_call center analysis.xlsx!calls">
-        <x15:activeTabTopLevelEntity name="[calls]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
 <rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <global>
@@ -17766,9 +17762,10 @@
     <v>Business woman shrugging</v>
   </rv>
   <rv s="0">
-    <v>3</v>
+    <v>1</v>
     <v>4</v>
-    <v>Young businessman writing on notebook</v>
+    <v>A person in a suit and tie
+Description automatically generated</v>
   </rv>
 </rvData>
 </file>
@@ -17819,7 +17816,7 @@
         </level>
       </levels>
       <selections count="1">
-        <selection n="[calls].[Representative].&amp;[R04]"/>
+        <selection n="[calls].[Representative].&amp;[R02]"/>
       </selections>
     </olap>
   </data>
@@ -57548,19 +57545,19 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="21">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="B12" s="42">
-        <v>16651</v>
+        <v>20485</v>
       </c>
       <c r="C12" s="21">
-        <v>17807</v>
+        <v>19161</v>
       </c>
       <c r="D12" s="22">
-        <v>3.8973118279569863</v>
+        <v>3.8700460829493086</v>
       </c>
       <c r="E12" s="23">
-        <v>62</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -57585,7 +57582,7 @@
         <v>1065</v>
       </c>
       <c r="H18" s="43">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -57593,16 +57590,16 @@
         <v>1048</v>
       </c>
       <c r="B19" s="43">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C19" s="43">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G19" s="25" t="s">
         <v>1063</v>
       </c>
       <c r="H19" s="43">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -57610,16 +57607,16 @@
         <v>1049</v>
       </c>
       <c r="B20" s="43">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" s="43">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G20" s="25" t="s">
         <v>1067</v>
       </c>
       <c r="H20" s="43">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -57627,16 +57624,16 @@
         <v>1050</v>
       </c>
       <c r="B21" s="43">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C21" s="43">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G21" s="25" t="s">
         <v>1068</v>
       </c>
       <c r="H21" s="43">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -57644,16 +57641,16 @@
         <v>1051</v>
       </c>
       <c r="B22" s="43">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C22" s="43">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="G22" s="25" t="s">
         <v>1066</v>
       </c>
       <c r="H22" s="43">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -57661,10 +57658,10 @@
         <v>1052</v>
       </c>
       <c r="B23" s="43">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C23" s="43">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G23" s="25" t="s">
         <v>1062</v>
@@ -57678,16 +57675,16 @@
         <v>1053</v>
       </c>
       <c r="B24" s="43">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C24" s="43">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G24" s="25" t="s">
         <v>1064</v>
       </c>
       <c r="H24" s="43">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -57695,16 +57692,16 @@
         <v>1054</v>
       </c>
       <c r="B25" s="43">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C25" s="43">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G25" s="25" t="s">
         <v>1047</v>
       </c>
       <c r="H25" s="43">
-        <v>186</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -57712,10 +57709,10 @@
         <v>1055</v>
       </c>
       <c r="B26" s="43">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C26" s="43">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -57723,10 +57720,10 @@
         <v>1056</v>
       </c>
       <c r="B27" s="43">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C27" s="43">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -57734,10 +57731,10 @@
         <v>1057</v>
       </c>
       <c r="B28" s="43">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C28" s="43">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -57745,10 +57742,10 @@
         <v>1058</v>
       </c>
       <c r="B29" s="43">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C29" s="43">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -57756,10 +57753,10 @@
         <v>1059</v>
       </c>
       <c r="B30" s="43">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C30" s="43">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -57767,10 +57764,10 @@
         <v>1047</v>
       </c>
       <c r="B31" s="43">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="C31" s="43">
-        <v>186</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.3">
@@ -58038,7 +58035,7 @@
       </c>
       <c r="H45" t="str">
         <f>A53</f>
-        <v>R04</v>
+        <v>R02</v>
       </c>
       <c r="S45" s="29" t="s">
         <v>24</v>
@@ -58167,7 +58164,7 @@
         <v>2</v>
       </c>
       <c r="M48" s="43">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="S48" s="29" t="s">
         <v>18</v>
@@ -58201,19 +58198,19 @@
       <c r="G49" s="26">
         <v>20485</v>
       </c>
-      <c r="H49" t="e">
+      <c r="H49">
         <f>IF(E49=$H$45,F49,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I49" s="26" t="e">
+        <v>217</v>
+      </c>
+      <c r="I49" s="26">
         <f>IF(E49=$H$45,G49,NA())</f>
-        <v>#N/A</v>
+        <v>20485</v>
       </c>
       <c r="L49" s="25">
         <v>3</v>
       </c>
       <c r="M49" s="43">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="S49" s="29" t="s">
         <v>14</v>
@@ -58259,7 +58256,7 @@
         <v>4</v>
       </c>
       <c r="M50" s="43">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="S50" s="29" t="s">
         <v>19</v>
@@ -58293,19 +58290,19 @@
       <c r="G51" s="26">
         <v>16651</v>
       </c>
-      <c r="H51">
+      <c r="H51" t="e">
         <f>IF(E51=$H$45,F51,NA())</f>
-        <v>186</v>
-      </c>
-      <c r="I51" s="26">
+        <v>#N/A</v>
+      </c>
+      <c r="I51" s="26" t="e">
         <f>IF(E51=$H$45,G51,NA())</f>
-        <v>16651</v>
+        <v>#N/A</v>
       </c>
       <c r="L51" s="25">
         <v>5</v>
       </c>
       <c r="M51" s="43">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="S51" s="25" t="s">
         <v>999</v>
@@ -58336,7 +58333,7 @@
         <v>1047</v>
       </c>
       <c r="M52" s="43">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="S52" s="29" t="s">
         <v>17</v>
@@ -58362,7 +58359,7 @@
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53" s="25" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I53" s="27"/>
       <c r="S53" s="29" t="s">
@@ -58462,7 +58459,7 @@
       </c>
       <c r="D58" s="36">
         <f>_xlfn.PERCENTOF(A12,A4)</f>
-        <v>0.18618618618618618</v>
+        <v>0.21721721721721721</v>
       </c>
       <c r="F58" t="s">
         <v>1082</v>
@@ -58474,11 +58471,11 @@
       </c>
       <c r="D59">
         <f>_xlfn.XLOOKUP(A53,E48:E52,F48:F52)</f>
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="G59" t="str">
         <f>"% of calls ="&amp; TEXT(D58,"0%")</f>
-        <v>% of calls =19%</v>
+        <v>% of calls =22%</v>
       </c>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.3">
@@ -58487,17 +58484,17 @@
       </c>
       <c r="D60">
         <f>_xlfn.XLOOKUP(A53,E48:E52,G48:G52)</f>
-        <v>16651</v>
+        <v>20485</v>
       </c>
       <c r="G60" t="str">
         <f>IF(COUNTA(A53:A57)&gt;1," ","call rank ="&amp;D62)</f>
-        <v>call rank =5</v>
+        <v>call rank =1</v>
       </c>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="G61" t="str">
         <f>IF(COUNTA(A53:A57)&gt;1,"","amount rank ="&amp;D63)</f>
-        <v>amount rank =5</v>
+        <v>amount rank =2</v>
       </c>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.3">
@@ -58506,7 +58503,7 @@
       </c>
       <c r="D62">
         <f>_xlfn.RANK.AVG(D59,F48:F52)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.3">
@@ -58515,7 +58512,7 @@
       </c>
       <c r="D63">
         <f>_xlfn.RANK.AVG(D60,G48:G52)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F63" t="s">
         <v>1083</v>
@@ -58536,14 +58533,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0225CA7-7906-463B-AFDE-BF6B4DBEC4F8}">
   <dimension ref="A1:X38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="Z13" sqref="Z13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.77734375" customWidth="1"/>
     <col min="2" max="2" width="3" customWidth="1"/>
+    <col min="23" max="23" width="10.77734375" customWidth="1"/>
     <col min="24" max="24" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -59651,7 +59649,7 @@
       <c r="L34" s="20"/>
       <c r="M34" s="37" t="str">
         <f>pivots!G59</f>
-        <v>% of calls =19%</v>
+        <v>% of calls =22%</v>
       </c>
       <c r="N34" s="37"/>
       <c r="O34" s="37"/>
@@ -59694,7 +59692,7 @@
       <c r="L35" s="20"/>
       <c r="M35" s="37" t="str">
         <f>pivots!G60</f>
-        <v>call rank =5</v>
+        <v>call rank =1</v>
       </c>
       <c r="N35" s="37"/>
       <c r="O35" s="37"/>
@@ -59737,7 +59735,7 @@
       <c r="L36" s="20"/>
       <c r="M36" s="37" t="str">
         <f>pivots!G61</f>
-        <v>amount rank =5</v>
+        <v>amount rank =2</v>
       </c>
       <c r="N36" s="37"/>
       <c r="O36" s="37"/>
